--- a/spring/springboot.xlsx
+++ b/spring/springboot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="163">
   <si>
     <t>@SpringBootApplication注释在内部有什么用处?</t>
   </si>
@@ -211,6 +211,500 @@
   </si>
   <si>
     <t>可以兼容，使用 @ImportResource 注解导入老 Spring 项目配置文件。</t>
+  </si>
+  <si>
+    <t>spring-boot-starter</t>
+  </si>
+  <si>
+    <t>Spring Boot将所有的功能场景都抽取出来，做成一个个的starters（启动器），只需要在项目里面引入这些starter 相关场景的所有依赖都会导入进来。要用什么功能就导入什么场景的启动器</t>
+  </si>
+  <si>
+    <t>@SpringBootApplication</t>
+  </si>
+  <si>
+    <t>Spring Boot应用标注在某个类上说明这个类是SpringBoot的主配置类，SpringBoot 就应该运行这个类的main方法来启动SpringBoot应用；</t>
+  </si>
+  <si>
+    <t>开启自动配置功能，以前是自己配置的，现在是Springboot帮我们配置</t>
+  </si>
+  <si>
+    <t>一共两个注解</t>
+  </si>
+  <si>
+    <t>1 @AutoConfigurationPackage：//自动配置包</t>
+  </si>
+  <si>
+    <t>将主配置类（@SpringBootApplication标注的类）的所在包及下面所有子包里面的所有组件扫描到Spring容器；</t>
+  </si>
+  <si>
+    <t>2 @Import(EnableAutoConfigurationImportSelector.class)；//给容器中导入自动配置类</t>
+  </si>
+  <si>
+    <t>EnableAutoConfigurationImportSelector:导入哪些组件的选择器</t>
+  </si>
+  <si>
+    <t>将所有需要导入的组件以全类名的方式返回；这些组件就会被添加到容器中；</t>
+  </si>
+  <si>
+    <r>
+      <t>会给容器中导入非常多的自动配置类（xxx</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AutoConfiguration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）；</t>
+    </r>
+  </si>
+  <si>
+    <t>自动配置类的作用就是给容器中导入这个场景需要的所有组件， 并配置好这些组件；</t>
+  </si>
+  <si>
+    <t>比如我们要用到AOP，那么AOP的自动个配置类就帮我们组件和信息配置好了</t>
+  </si>
+  <si>
+    <t>有了自动配置类，免去了我们手动编写配置注入功能组件等的工作；</t>
+  </si>
+  <si>
+    <r>
+      <t>SpringFactoriesLoader.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loadFactoryNames</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(EnableAutoConfiguration.class,classLoader)；</t>
+    </r>
+  </si>
+  <si>
+    <t>Spring Boot在启动的时候通过调用loadFactoryNames方法从类路径下的META-INF/spring.factories中获取EnableAutoConfiguration指定的值，</t>
+  </si>
+  <si>
+    <t>将 这些值作为自动配置类导入到容器中，自动配置类就生效，帮我们进行自动配置工作；</t>
+  </si>
+  <si>
+    <t>以前我们需要自己配置的东 西，自动配置类都帮我们；</t>
+  </si>
+  <si>
+    <t>@RestController</t>
+  </si>
+  <si>
+    <t>@ConfigurationProperties(prefix = "person")</t>
+  </si>
+  <si>
+    <t>告诉SpringBoot将本类中的所有属性和配置文件中相关的配置进行绑定；</t>
+  </si>
+  <si>
+    <t>prefix = "person"：配置文件中哪个下面的所有属性进行一一映射</t>
+  </si>
+  <si>
+    <t>只有这个组件是容器中的组件@Component，才能容器提供的@ConfigurationProperties功能；</t>
+  </si>
+  <si>
+    <t>spring‐boot‐configuration‐processor</t>
+  </si>
+  <si>
+    <t>导入配置文件处理器，配置文件进行绑定就会有提示</t>
+  </si>
+  <si>
+    <t>@Component</t>
+  </si>
+  <si>
+    <t>把普通pojo实例化到spring容器中，相当于配置文件中的&lt;bean id="" class=""/&gt;</t>
+  </si>
+  <si>
+    <t>@Value获取值和@ConfigurationProperties获取值比较</t>
+  </si>
+  <si>
+    <t>场景</t>
+  </si>
+  <si>
+    <t>如果说，我们只是在某个业务逻辑中需要获取一下配置文件中的某项值，使用@Value；</t>
+  </si>
+  <si>
+    <t>如果说，我们专门编写了一个javaBean来和配置文件进行映射，我们就直接使用@ConfigurationProperties；</t>
+  </si>
+  <si>
+    <t>@PropertySource(value = {"classpath:person.properties"})</t>
+  </si>
+  <si>
+    <t>加载指定的配置文件，@ConfigurationProperties加载的全局</t>
+  </si>
+  <si>
+    <t>SpringBoot推荐给容器中添加组件的方式</t>
+  </si>
+  <si>
+    <t>推荐使用全注解的方式</t>
+  </si>
+  <si>
+    <t>配置类@Configuration------&gt;Spring配置文件</t>
+  </si>
+  <si>
+    <t>使用@Bean给容器中添加组件</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>用于测试，生产环境切换</t>
+  </si>
+  <si>
+    <t>例如激活dev环境的profile设置</t>
+  </si>
+  <si>
+    <t>定 spring.profiles.active=dev</t>
+  </si>
+  <si>
+    <t>yml文档快配置模式</t>
+  </si>
+  <si>
+    <t>配置文件加载位置（配置文件优先级）</t>
+  </si>
+  <si>
+    <t>springboot 启动会扫描以下位置的application.properties或者application.yml文件作为Spring boot的默认配置文 件</t>
+  </si>
+  <si>
+    <t>–fifile:./confifig/</t>
+  </si>
+  <si>
+    <t>–fifile:./</t>
+  </si>
+  <si>
+    <t>–classpath:/confifig/</t>
+  </si>
+  <si>
+    <t>–classpath:/</t>
+  </si>
+  <si>
+    <r>
+      <t>优先级由高到底，高优先级的配置会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>覆盖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>低优先级的配置；（含config目录的优先级是最高的）</t>
+    </r>
+  </si>
+  <si>
+    <t>SpringBoot会从这四个位置全部加载主配置文件；互补配置；</t>
+  </si>
+  <si>
+    <t>自动配置原理</t>
+  </si>
+  <si>
+    <r>
+      <t>1）、SpringBoot启动的时候</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加载主配置类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，开启了自动配置功能 @EnableAutoConfiguration</t>
+    </r>
+  </si>
+  <si>
+    <t>2）、@EnableAutoConfiguration 作用：</t>
+  </si>
+  <si>
+    <t>利用EnableAutoConfigurationImportSelector给容器中导入一些组件</t>
+  </si>
+  <si>
+    <t>可以查看selectImports()方法的内容</t>
+  </si>
+  <si>
+    <t>List configurations = getCandidateConfigurations(annotationMetadata, attributes);获取候选的配置</t>
+  </si>
+  <si>
+    <t>将 类路径下 META-INF/spring.factories 里面配置的所有EnableAutoConfiguration的值加入到了容器中；</t>
+  </si>
+  <si>
+    <t>每一个这样的 xxxAutoConfiguration类都是容器中的一个组件，都加入到容器中；用他们来做自动配置；</t>
+  </si>
+  <si>
+    <t>只有当自动配置的类进入到容器中后，自动配置类才会起作用</t>
+  </si>
+  <si>
+    <t>3）、每一个自动配置类进行自动配置功能；</t>
+  </si>
+  <si>
+    <t>4）、以HttpEncodingAutoConfiguration（Http编码自动配置）为例解释自动配置原理；</t>
+  </si>
+  <si>
+    <t>一句话解释自动配置：根据当前不同的条件判断，决定这个配置类是否生效？</t>
+  </si>
+  <si>
+    <t>一但这个配置类生效；这个配置类就会给容器中添加各种组件；这些组件的属性是从对应的properties类中获取 的，这些类里面的每一个属性又是和配置文件绑定的；</t>
+  </si>
+  <si>
+    <t>5）、所有在配置文件中能配置的属性都是在xxxxProperties类中封装者‘；配置文件能配置什么就可以参照某个功 能对应的这个属性类</t>
+  </si>
+  <si>
+    <t>精髓：</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.75"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.75"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SpringBoot</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.75"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>启动会加载大量的自动配置类</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.75"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）、我们看我们需要的功能有没有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.75"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SpringBoot</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.75"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认写好的自动配置类；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.75"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）、我们再来看这个自动配置类中到底配置了哪些组件；（只要我们要用的组件有，我们就不需要再来配置了）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.75"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）、给容器中自动配置类添加组件的时候，会从</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.75"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <charset val="134"/>
+      </rPr>
+      <t>properties</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.75"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类中获取某些属性。我们就可以在配置文件中指定这</t>
+    </r>
+  </si>
+  <si>
+    <t>些属性的值；</t>
+  </si>
+  <si>
+    <t>xxxxAutoConfigurartion：自动配置类；</t>
+  </si>
+  <si>
+    <t>给容器中添加组件</t>
+  </si>
+  <si>
+    <t>xxxxProperties:封装配置文件中相关属性；</t>
+  </si>
+  <si>
+    <t>@Conditional派生注解</t>
+  </si>
+  <si>
+    <t>作用：必须是@Conditional指定的条件成立，才给容器中添加组件，配置配里面的所有内容才生效；</t>
+  </si>
+  <si>
+    <t>自动配置类必须在一定的条件下才能生效；</t>
+  </si>
+  <si>
+    <t>我们怎么知道哪些自动配置类生效；</t>
+  </si>
+  <si>
+    <t>我们可以通过启用 debug=true属性；来让控制台打印自动配置报告，这样我们就可以很方便的知道哪些自动配置 类生效；</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>Docker支持将软件编译成一个镜像；然后在镜像中各种软件做好配置，将镜像发布出去，其他使用者可以直接使 用这个镜像；</t>
+  </si>
+  <si>
+    <t>运行中的这个镜像称为容器，容器启动是非常快速的。</t>
+  </si>
+  <si>
+    <t>Docker核心概念</t>
+  </si>
+  <si>
+    <t>docker主机(Host)：安装了Docker程序的机器（Docker直接安装在操作系统之上）；</t>
+  </si>
+  <si>
+    <t>docker客户端(Client)：连接docker主机进行操作（就像mysql客户端链接mysql数据库操作一样）；</t>
+  </si>
+  <si>
+    <t>docker仓库(Registry)：用来保存各种打包好的软件镜像</t>
+  </si>
+  <si>
+    <t>docker镜像(Images)：软件打包好的镜像；放在docker仓库中；</t>
+  </si>
+  <si>
+    <t>docker容器(Container)：镜像启动后的实例称为一个容器；容器是独立运行的一个或一组应用</t>
+  </si>
+  <si>
+    <t>启动流程</t>
+  </si>
+  <si>
+    <t>几个重要的回调机制</t>
+  </si>
+  <si>
+    <t>配置在META-INF/Spring.factories</t>
+  </si>
+  <si>
+    <t>ApplicationContextInitializer</t>
+  </si>
+  <si>
+    <t>SpringApplicationRunListener</t>
+  </si>
+  <si>
+    <t>只需要放在ioc容器中</t>
+  </si>
+  <si>
+    <t>ApplicationRunner</t>
+  </si>
+  <si>
+    <t>CommandLineRunner</t>
+  </si>
+  <si>
+    <t>1.创建SpringApplication对象</t>
+  </si>
+  <si>
+    <t>2.运行run方法</t>
   </si>
 </sst>
 </file>
@@ -218,18 +712,32 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.75"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.75"/>
+      <color rgb="FF333333"/>
+      <name val="Open Sans"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -248,50 +756,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,30 +764,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,6 +795,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -369,7 +818,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,6 +862,35 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -397,6 +898,168 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -406,109 +1069,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,67 +1081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,54 +1097,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,13 +1139,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,159 +1197,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -986,6 +1493,515 @@
         <a:xfrm>
           <a:off x="1371600" y="6858000"/>
           <a:ext cx="4448175" cy="1847850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7372350"/>
+          <a:ext cx="6134100" cy="1876425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="11239500"/>
+          <a:ext cx="3800475" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="14277975"/>
+          <a:ext cx="2314575" cy="3381375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="20574000"/>
+          <a:ext cx="5572125" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="22974300"/>
+          <a:ext cx="5772150" cy="3333750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="29489400"/>
+          <a:ext cx="5772150" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343025" y="26298525"/>
+          <a:ext cx="5038725" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="33318450"/>
+          <a:ext cx="5705475" cy="3981450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="42062400"/>
+          <a:ext cx="5762625" cy="2876550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="45319950"/>
+          <a:ext cx="3981450" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="45834300"/>
+          <a:ext cx="5848350" cy="5410200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="51149250"/>
+          <a:ext cx="5514975" cy="3848100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1290,17 +2306,17 @@
   <sheetPr/>
   <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1320,7 +2336,7 @@
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1350,7 +2366,7 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1385,7 +2401,7 @@
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1400,7 +2416,7 @@
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1430,7 +2446,7 @@
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1445,7 +2461,7 @@
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1455,7 +2471,7 @@
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1475,7 +2491,7 @@
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1500,12 +2516,12 @@
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1525,7 +2541,7 @@
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1535,7 +2551,7 @@
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1545,12 +2561,12 @@
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1565,7 +2581,7 @@
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1590,7 +2606,7 @@
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="4" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1615,7 +2631,7 @@
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1635,17 +2651,512 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C263"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="C327" sqref="C327"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3">
+      <c r="C131" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3">
+      <c r="C169" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3">
+      <c r="C170" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="180" ht="16.5" spans="2:2">
+      <c r="B180" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="181" ht="16.5" spans="2:2">
+      <c r="B181" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="182" ht="16.5" spans="2:2">
+      <c r="B182" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="183" ht="16.5" spans="2:2">
+      <c r="B183" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="184" ht="16.5" spans="2:2">
+      <c r="B184" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="185" ht="16.5" spans="2:2">
+      <c r="B185" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3">
+      <c r="C188" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>144</v>
+      </c>
+      <c r="B223" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3">
+      <c r="C224" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/spring/springboot.xlsx
+++ b/spring/springboot.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="165">
   <si>
     <t>@SpringBootApplication注释在内部有什么用处?</t>
   </si>
@@ -216,16 +216,230 @@
     <t>spring-boot-starter</t>
   </si>
   <si>
-    <t>Spring Boot将所有的功能场景都抽取出来，做成一个个的starters（启动器），只需要在项目里面引入这些starter 相关场景的所有依赖都会导入进来。要用什么功能就导入什么场景的启动器</t>
+    <r>
+      <t>Spring Boot将</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所有的功能场景都抽取出来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>做成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一个个的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>starters（启动器）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>只需要在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>里面</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>引入这些starter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>相关场景</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的所有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>依赖都会导入进来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。要用什么功能就导入什么场景的启动器</t>
+    </r>
   </si>
   <si>
     <t>@SpringBootApplication</t>
   </si>
   <si>
-    <t>Spring Boot应用标注在某个类上说明这个类是SpringBoot的主配置类，SpringBoot 就应该运行这个类的main方法来启动SpringBoot应用；</t>
-  </si>
-  <si>
-    <t>开启自动配置功能，以前是自己配置的，现在是Springboot帮我们配置</t>
+    <r>
+      <t>Spring Boot应用标注在某个类上说明这个类是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SpringBoot的主配置类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，SpringBoot 就应该运行这个类的main方法来</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>启动SpringBoot应用；</t>
+    </r>
+  </si>
+  <si>
+    <t>@SpringBootConfiguration</t>
+  </si>
+  <si>
+    <r>
+      <t>开启</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自动配置功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，以前是自己配置的，现在是Springboot帮我们配置</t>
+    </r>
   </si>
   <si>
     <t>一共两个注解</t>
@@ -234,7 +448,72 @@
     <t>1 @AutoConfigurationPackage：//自动配置包</t>
   </si>
   <si>
-    <t>将主配置类（@SpringBootApplication标注的类）的所在包及下面所有子包里面的所有组件扫描到Spring容器；</t>
+    <r>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主配置类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@SpringBootApplication标注的类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所在包及下面所有子包里面的所有组件扫描到Spring容器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
   </si>
   <si>
     <t>2 @Import(EnableAutoConfigurationImportSelector.class)；//给容器中导入自动配置类</t>
@@ -247,6 +526,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>会给容器中导入非常多的自动配置类（xxx</t>
     </r>
     <r>
@@ -282,6 +568,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>SpringFactoriesLoader.</t>
     </r>
     <r>
@@ -407,6 +700,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>优先级由高到底，高优先级的配置会</t>
     </r>
     <r>
@@ -439,6 +739,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1）、SpringBoot启动的时候</t>
     </r>
     <r>
@@ -504,6 +811,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9.75"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -539,6 +853,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9.75"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <charset val="134"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -574,6 +895,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9.75"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <charset val="134"/>
+      </rPr>
       <t>3</t>
     </r>
     <r>
@@ -589,6 +917,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9.75"/>
+        <color rgb="FF333333"/>
+        <rFont val="Open Sans"/>
+        <charset val="134"/>
+      </rPr>
       <t>4</t>
     </r>
     <r>
@@ -712,13 +1047,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -740,23 +1083,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,11 +1119,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -786,23 +1158,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,8 +1182,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,46 +1213,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -880,13 +1222,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -901,13 +1236,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,7 +1302,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,31 +1332,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,13 +1368,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,91 +1410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,6 +1432,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1106,20 +1450,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1139,6 +1495,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1153,45 +1527,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1200,10 +1535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1212,144 +1547,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1514,13 +1852,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1538,7 +1876,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="7372350"/>
+          <a:off x="685800" y="9258300"/>
           <a:ext cx="6134100" cy="1876425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1556,13 +1894,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1580,7 +1918,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="11239500"/>
+          <a:off x="800100" y="13125450"/>
           <a:ext cx="3800475" cy="1752600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1598,13 +1936,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1622,7 +1960,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1323975" y="14277975"/>
+          <a:off x="1323975" y="16163925"/>
           <a:ext cx="2314575" cy="3381375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1640,13 +1978,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1664,7 +2002,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="20574000"/>
+          <a:off x="2057400" y="22459950"/>
           <a:ext cx="5572125" cy="1181100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1682,13 +2020,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1706,7 +2044,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="22974300"/>
+          <a:off x="1371600" y="24860250"/>
           <a:ext cx="5772150" cy="3333750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1724,13 +2062,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>188</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1748,7 +2086,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="29489400"/>
+          <a:off x="1371600" y="31375350"/>
           <a:ext cx="5772150" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1766,13 +2104,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1790,7 +2128,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1343025" y="26298525"/>
+          <a:off x="1343025" y="28184475"/>
           <a:ext cx="5038725" cy="2505075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1808,13 +2146,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1832,7 +2170,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="33318450"/>
+          <a:off x="685800" y="35204400"/>
           <a:ext cx="5705475" cy="3981450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1850,13 +2188,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>260</xdr:row>
+      <xdr:row>271</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1874,7 +2212,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="42062400"/>
+          <a:off x="1371600" y="43948350"/>
           <a:ext cx="5762625" cy="2876550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1892,13 +2230,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>263</xdr:row>
+      <xdr:row>274</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>266</xdr:row>
+      <xdr:row>277</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1916,7 +2254,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="45319950"/>
+          <a:off x="1371600" y="47205900"/>
           <a:ext cx="3981450" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1934,13 +2272,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>266</xdr:row>
+      <xdr:row>277</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>297</xdr:row>
+      <xdr:row>308</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1958,7 +2296,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="45834300"/>
+          <a:off x="1371600" y="47720250"/>
           <a:ext cx="5848350" cy="5410200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1976,13 +2314,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>297</xdr:row>
+      <xdr:row>308</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2000,8 +2338,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="51149250"/>
+          <a:off x="1371600" y="53035200"/>
           <a:ext cx="5514975" cy="3848100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10753725" y="1104900"/>
+          <a:ext cx="5648325" cy="1714500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2312,11 +2692,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2336,7 +2716,7 @@
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2366,7 +2746,7 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2401,7 +2781,7 @@
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2416,7 +2796,7 @@
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2446,7 +2826,7 @@
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2461,7 +2841,7 @@
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2471,7 +2851,7 @@
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2491,7 +2871,7 @@
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2516,12 +2896,12 @@
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2541,7 +2921,7 @@
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2551,7 +2931,7 @@
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2561,12 +2941,12 @@
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2581,7 +2961,7 @@
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2606,7 +2986,7 @@
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2631,7 +3011,7 @@
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2651,505 +3031,543 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C263"/>
+  <dimension ref="A1:C274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="C327" sqref="C327"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="3" spans="2:2">
+      <c r="B3" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
+    <row r="13" spans="2:2">
+      <c r="B13" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="3" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="1" t="s">
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="s">
+    <row r="32" spans="2:2">
+      <c r="B32" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
-      <c r="B55" t="s">
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
-      <c r="B60" t="s">
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
-      <c r="B63" t="s">
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
-      <c r="B64" t="s">
+    <row r="73" spans="1:1">
+      <c r="A73" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" t="s">
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
-      <c r="B79" t="s">
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
-      <c r="B80" t="s">
+    <row r="89" spans="1:1">
+      <c r="A89" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="3:3">
-      <c r="C81" t="s">
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
-      <c r="B83" t="s">
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+    <row r="92" spans="3:3">
+      <c r="C92" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
-      <c r="B107" t="s">
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
-      <c r="B108" t="s">
+    <row r="117" spans="1:1">
+      <c r="A117" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
-      <c r="B109" t="s">
+    <row r="118" spans="2:2">
+      <c r="B118" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
-      <c r="B110" t="s">
+    <row r="119" spans="2:2">
+      <c r="B119" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
-      <c r="B111" t="s">
+    <row r="120" spans="2:2">
+      <c r="B120" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="112" spans="2:2">
-      <c r="B112" s="1" t="s">
+    <row r="121" spans="2:2">
+      <c r="B121" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="2:2">
-      <c r="B113" t="s">
+    <row r="122" spans="2:2">
+      <c r="B122" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+    <row r="123" spans="2:2">
+      <c r="B123" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="1" t="s">
+    <row r="124" spans="2:2">
+      <c r="B124" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
-      <c r="B117" t="s">
+    <row r="126" spans="1:1">
+      <c r="A126" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="3:3">
-      <c r="C118" t="s">
+    <row r="127" spans="2:2">
+      <c r="B127" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="3:3">
-      <c r="C119" t="s">
+    <row r="128" spans="2:2">
+      <c r="B128" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3">
-      <c r="C120" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="129" spans="3:3">
       <c r="C129" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130" spans="3:3">
       <c r="C130" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="131" spans="3:3">
       <c r="C131" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3">
+      <c r="C140" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
-      <c r="B133" t="s">
+    <row r="141" spans="3:3">
+      <c r="C141" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
-      <c r="B134" t="s">
+    <row r="142" spans="3:3">
+      <c r="C142" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="169" spans="3:3">
-      <c r="C169" t="s">
+    <row r="144" spans="2:2">
+      <c r="B144" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="170" spans="3:3">
-      <c r="C170" t="s">
+    <row r="145" spans="2:2">
+      <c r="B145" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="172" spans="2:2">
-      <c r="B172" t="s">
+    <row r="180" spans="3:3">
+      <c r="C180" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="180" ht="16.5" spans="2:2">
-      <c r="B180" s="2" t="s">
+    <row r="181" spans="3:3">
+      <c r="C181" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="181" ht="16.5" spans="2:2">
-      <c r="B181" s="3" t="s">
+    <row r="183" spans="2:2">
+      <c r="B183" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="182" ht="16.5" spans="2:2">
-      <c r="B182" s="3" t="s">
+    <row r="191" ht="16.5" spans="2:2">
+      <c r="B191" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="183" ht="16.5" spans="2:2">
-      <c r="B183" s="3" t="s">
+    <row r="192" ht="16.5" spans="2:2">
+      <c r="B192" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="184" ht="16.5" spans="2:2">
-      <c r="B184" s="3" t="s">
+    <row r="193" ht="16.5" spans="2:2">
+      <c r="B193" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="185" ht="16.5" spans="2:2">
-      <c r="B185" s="2" t="s">
+    <row r="194" ht="16.5" spans="2:2">
+      <c r="B194" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="187" spans="2:2">
-      <c r="B187" t="s">
+    <row r="195" ht="16.5" spans="2:2">
+      <c r="B195" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="188" spans="3:3">
-      <c r="C188" t="s">
+    <row r="196" ht="16.5" spans="2:2">
+      <c r="B196" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="189" spans="2:2">
-      <c r="B189" t="s">
+    <row r="198" spans="2:2">
+      <c r="B198" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+    <row r="199" spans="3:3">
+      <c r="C199" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="193" spans="2:2">
-      <c r="B193" t="s">
+    <row r="200" spans="2:2">
+      <c r="B200" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="218" spans="2:2">
-      <c r="B218" t="s">
+    <row r="203" spans="1:1">
+      <c r="A203" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="219" spans="2:2">
-      <c r="B219" t="s">
+    <row r="204" spans="2:2">
+      <c r="B204" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="220" spans="2:2">
-      <c r="B220" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" t="s">
-        <v>144</v>
-      </c>
-      <c r="B223" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="224" spans="3:3">
-      <c r="C224" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="227" spans="2:2">
-      <c r="B227" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="228" spans="2:2">
-      <c r="B228" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="230" spans="2:2">
       <c r="B230" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="234" spans="2:2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="B234" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="235" spans="2:2">
-      <c r="B235" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="236" spans="2:2">
-      <c r="B236" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="237" spans="2:2">
-      <c r="B237" t="s">
-        <v>157</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3">
+      <c r="C235" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="240" spans="2:2">
       <c r="B240" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="244" spans="2:2">
-      <c r="B244" t="s">
+    <row r="251" spans="2:2">
+      <c r="B251" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="263" spans="2:2">
-      <c r="B263" t="s">
+    <row r="252" spans="2:2">
+      <c r="B252" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/spring/springboot.xlsx
+++ b/spring/springboot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="1"/>
+    <workbookView windowWidth="25200" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,6 +217,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Spring Boot将</t>
     </r>
     <r>
@@ -285,6 +292,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>只需要在</t>
     </r>
     <r>
@@ -377,6 +391,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Spring Boot应用标注在某个类上说明这个类是</t>
     </r>
     <r>
@@ -417,6 +438,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>开启</t>
     </r>
     <r>
@@ -449,6 +477,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>将</t>
     </r>
     <r>
@@ -1049,8 +1084,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1084,6 +1119,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1091,7 +1133,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1105,6 +1147,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1113,15 +1170,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1150,6 +1199,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1158,24 +1222,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1197,13 +1246,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1214,14 +1256,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1236,7 +1271,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,7 +1295,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1260,31 +1385,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,97 +1433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,18 +1455,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1427,6 +1462,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1441,11 +1491,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1461,21 +1524,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1506,24 +1554,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1535,10 +1570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1547,141 +1582,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2354,16 +2386,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2380,7 +2412,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10753725" y="1104900"/>
+          <a:off x="2752725" y="1095375"/>
           <a:ext cx="5648325" cy="1714500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2692,11 +2724,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2716,7 +2748,7 @@
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2746,7 +2778,7 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2781,7 +2813,7 @@
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2796,7 +2828,7 @@
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2826,7 +2858,7 @@
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2841,7 +2873,7 @@
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2851,7 +2883,7 @@
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2871,7 +2903,7 @@
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2896,12 +2928,12 @@
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2921,7 +2953,7 @@
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2931,7 +2963,7 @@
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2941,12 +2973,12 @@
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2961,7 +2993,7 @@
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2986,7 +3018,7 @@
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3011,7 +3043,7 @@
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3034,7 +3066,7 @@
   <dimension ref="A1:C274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3043,67 +3075,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="3"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="3"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="3"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="3"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="3"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3118,7 +3150,7 @@
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3138,7 +3170,7 @@
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3158,7 +3190,7 @@
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3178,12 +3210,12 @@
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3203,7 +3235,7 @@
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3213,7 +3245,7 @@
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3223,7 +3255,7 @@
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3243,7 +3275,7 @@
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3253,7 +3285,7 @@
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3273,7 +3305,7 @@
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3298,7 +3330,7 @@
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3328,7 +3360,7 @@
       </c>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3338,12 +3370,12 @@
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="2" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3408,32 +3440,32 @@
       </c>
     </row>
     <row r="191" ht="16.5" spans="2:2">
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="192" ht="16.5" spans="2:2">
-      <c r="B192" s="5" t="s">
+      <c r="B192" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="193" ht="16.5" spans="2:2">
-      <c r="B193" s="5" t="s">
+      <c r="B193" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="194" ht="16.5" spans="2:2">
-      <c r="B194" s="5" t="s">
+      <c r="B194" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="195" ht="16.5" spans="2:2">
-      <c r="B195" s="5" t="s">
+      <c r="B195" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="196" ht="16.5" spans="2:2">
-      <c r="B196" s="4" t="s">
+      <c r="B196" s="3" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3453,7 +3485,7 @@
       </c>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="2" t="s">
+      <c r="A203" s="1" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3478,7 +3510,7 @@
       </c>
     </row>
     <row r="234" spans="1:2">
-      <c r="A234" s="2" t="s">
+      <c r="A234" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B234" t="s">
@@ -3491,7 +3523,7 @@
       </c>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="2" t="s">
+      <c r="A237" s="1" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3521,7 +3553,7 @@
       </c>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="2" t="s">
+      <c r="A244" s="1" t="s">
         <v>155</v>
       </c>
     </row>

--- a/spring/springboot.xlsx
+++ b/spring/springboot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12240" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="167">
   <si>
     <t>@SpringBootApplication注释在内部有什么用处?</t>
   </si>
@@ -645,6 +645,12 @@
   </si>
   <si>
     <t>@RestController</t>
+  </si>
+  <si>
+    <t>除了自动添加@Controller和@ResponseBody注释之外没有其他新</t>
+  </si>
+  <si>
+    <t>通过使用@RestController批注对控制器类进行注释，您不再需要将@ResponseBody添加到所有请求映射方法中。@ResponseBody注释默认处于活动状态。</t>
   </si>
   <si>
     <t>@ConfigurationProperties(prefix = "person")</t>
@@ -1082,9 +1088,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -1119,45 +1125,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1176,6 +1146,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1183,9 +1207,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1200,7 +1254,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1209,54 +1263,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1271,7 +1277,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,13 +1313,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,31 +1355,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,25 +1427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,61 +1439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,25 +1457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,6 +1468,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1476,39 +1515,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1528,6 +1534,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1542,26 +1568,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1570,10 +1576,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1582,133 +1588,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3065,8 +3071,8 @@
   <sheetPr/>
   <dimension ref="A1:C274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3214,392 +3220,402 @@
         <v>86</v>
       </c>
     </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+    </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="3:3">
       <c r="C129" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130" spans="3:3">
       <c r="C130" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131" spans="3:3">
       <c r="C131" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="140" spans="3:3">
       <c r="C140" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="141" spans="3:3">
       <c r="C141" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="142" spans="3:3">
       <c r="C142" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="180" spans="3:3">
       <c r="C180" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="181" spans="3:3">
       <c r="C181" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="191" ht="16.5" spans="2:2">
       <c r="B191" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="192" ht="16.5" spans="2:2">
       <c r="B192" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="193" ht="16.5" spans="2:2">
       <c r="B193" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="194" ht="16.5" spans="2:2">
       <c r="B194" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="195" ht="16.5" spans="2:2">
       <c r="B195" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="196" ht="16.5" spans="2:2">
       <c r="B196" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="199" spans="3:3">
       <c r="C199" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="229" spans="2:2">
       <c r="B229" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="230" spans="2:2">
       <c r="B230" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="231" spans="2:2">
       <c r="B231" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B234" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="235" spans="3:3">
       <c r="C235" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="240" spans="2:2">
       <c r="B240" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="241" spans="2:2">
       <c r="B241" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="242" spans="2:2">
       <c r="B242" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="245" spans="2:2">
       <c r="B245" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="246" spans="2:2">
       <c r="B246" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="247" spans="2:2">
       <c r="B247" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="248" spans="2:2">
       <c r="B248" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="250" spans="2:2">
       <c r="B250" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="255" spans="2:2">
       <c r="B255" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="274" spans="2:2">
       <c r="B274" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
